--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
@@ -2341,10 +2341,10 @@
         <v>104.6</v>
       </c>
       <c r="D97">
-        <v>102.3</v>
+        <v>100.5</v>
       </c>
       <c r="E97">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2358,10 +2358,10 @@
         <v>103.6</v>
       </c>
       <c r="D98">
-        <v>102</v>
+        <v>100.4</v>
       </c>
       <c r="E98">
-        <v>100.8</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2375,10 +2375,10 @@
         <v>105.4</v>
       </c>
       <c r="D99">
-        <v>101.8</v>
+        <v>100.1</v>
       </c>
       <c r="E99">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2392,10 +2392,10 @@
         <v>105</v>
       </c>
       <c r="D100">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E100">
-        <v>100.6</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2409,10 +2409,10 @@
         <v>104.8</v>
       </c>
       <c r="D101">
-        <v>101.4</v>
+        <v>99.5</v>
       </c>
       <c r="E101">
-        <v>100.7</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2426,10 +2426,10 @@
         <v>104.8</v>
       </c>
       <c r="D102">
-        <v>101.7</v>
+        <v>99.8</v>
       </c>
       <c r="E102">
-        <v>101.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2443,10 +2443,10 @@
         <v>106.3</v>
       </c>
       <c r="D103">
-        <v>101.7</v>
+        <v>99.3</v>
       </c>
       <c r="E103">
-        <v>100.5</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Serie</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2449,6 +2452,17 @@
         <v>98.90000000000001</v>
       </c>
     </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104">
+        <v>108</v>
+      </c>
+      <c r="C104">
+        <v>106.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Serie</t>
   </si>
@@ -31,313 +31,427 @@
     <t>Japón índice de todos los ítemes menos alimentos y energía</t>
   </si>
   <si>
-    <t>01-01-1996</t>
-  </si>
-  <si>
-    <t>01-04-1996</t>
-  </si>
-  <si>
-    <t>01-07-1996</t>
-  </si>
-  <si>
-    <t>01-10-1996</t>
-  </si>
-  <si>
-    <t>01-01-1997</t>
-  </si>
-  <si>
-    <t>01-04-1997</t>
-  </si>
-  <si>
-    <t>01-07-1997</t>
-  </si>
-  <si>
-    <t>01-10-1997</t>
-  </si>
-  <si>
-    <t>01-01-1998</t>
-  </si>
-  <si>
-    <t>01-04-1998</t>
-  </si>
-  <si>
-    <t>01-07-1998</t>
-  </si>
-  <si>
-    <t>01-10-1998</t>
-  </si>
-  <si>
-    <t>01-01-1999</t>
-  </si>
-  <si>
-    <t>01-04-1999</t>
-  </si>
-  <si>
-    <t>01-07-1999</t>
-  </si>
-  <si>
-    <t>01-10-1999</t>
-  </si>
-  <si>
-    <t>01-01-2000</t>
-  </si>
-  <si>
-    <t>01-04-2000</t>
-  </si>
-  <si>
-    <t>01-07-2000</t>
-  </si>
-  <si>
-    <t>01-10-2000</t>
-  </si>
-  <si>
-    <t>01-01-2001</t>
-  </si>
-  <si>
-    <t>01-04-2001</t>
-  </si>
-  <si>
-    <t>01-07-2001</t>
-  </si>
-  <si>
-    <t>01-10-2001</t>
-  </si>
-  <si>
-    <t>01-01-2002</t>
-  </si>
-  <si>
-    <t>01-04-2002</t>
-  </si>
-  <si>
-    <t>01-07-2002</t>
-  </si>
-  <si>
-    <t>01-10-2002</t>
-  </si>
-  <si>
-    <t>01-01-2003</t>
-  </si>
-  <si>
-    <t>01-04-2003</t>
-  </si>
-  <si>
-    <t>01-07-2003</t>
-  </si>
-  <si>
-    <t>01-10-2003</t>
-  </si>
-  <si>
-    <t>01-01-2004</t>
-  </si>
-  <si>
-    <t>01-04-2004</t>
-  </si>
-  <si>
-    <t>01-07-2004</t>
-  </si>
-  <si>
-    <t>01-10-2004</t>
-  </si>
-  <si>
-    <t>01-01-2005</t>
-  </si>
-  <si>
-    <t>01-04-2005</t>
-  </si>
-  <si>
-    <t>01-07-2005</t>
-  </si>
-  <si>
-    <t>01-10-2005</t>
-  </si>
-  <si>
-    <t>01-01-2006</t>
-  </si>
-  <si>
-    <t>01-04-2006</t>
-  </si>
-  <si>
-    <t>01-07-2006</t>
-  </si>
-  <si>
-    <t>01-10-2006</t>
-  </si>
-  <si>
-    <t>01-01-2007</t>
-  </si>
-  <si>
-    <t>01-04-2007</t>
-  </si>
-  <si>
-    <t>01-07-2007</t>
-  </si>
-  <si>
-    <t>01-10-2007</t>
-  </si>
-  <si>
-    <t>01-01-2008</t>
-  </si>
-  <si>
-    <t>01-04-2008</t>
-  </si>
-  <si>
-    <t>01-07-2008</t>
-  </si>
-  <si>
-    <t>01-10-2008</t>
-  </si>
-  <si>
-    <t>01-01-2009</t>
-  </si>
-  <si>
-    <t>01-04-2009</t>
-  </si>
-  <si>
-    <t>01-07-2009</t>
-  </si>
-  <si>
-    <t>01-10-2009</t>
-  </si>
-  <si>
-    <t>01-01-2010</t>
-  </si>
-  <si>
-    <t>01-04-2010</t>
-  </si>
-  <si>
-    <t>01-07-2010</t>
-  </si>
-  <si>
-    <t>01-10-2010</t>
-  </si>
-  <si>
-    <t>01-01-2011</t>
-  </si>
-  <si>
-    <t>01-04-2011</t>
-  </si>
-  <si>
-    <t>01-07-2011</t>
-  </si>
-  <si>
-    <t>01-10-2011</t>
-  </si>
-  <si>
-    <t>01-01-2012</t>
-  </si>
-  <si>
-    <t>01-04-2012</t>
-  </si>
-  <si>
-    <t>01-07-2012</t>
-  </si>
-  <si>
-    <t>01-10-2012</t>
-  </si>
-  <si>
-    <t>01-01-2013</t>
-  </si>
-  <si>
-    <t>01-04-2013</t>
-  </si>
-  <si>
-    <t>01-07-2013</t>
-  </si>
-  <si>
-    <t>01-10-2013</t>
-  </si>
-  <si>
-    <t>01-01-2014</t>
-  </si>
-  <si>
-    <t>01-04-2014</t>
-  </si>
-  <si>
-    <t>01-07-2014</t>
-  </si>
-  <si>
-    <t>01-10-2014</t>
-  </si>
-  <si>
-    <t>01-01-2015</t>
-  </si>
-  <si>
-    <t>01-04-2015</t>
-  </si>
-  <si>
-    <t>01-07-2015</t>
-  </si>
-  <si>
-    <t>01-10-2015</t>
-  </si>
-  <si>
-    <t>01-01-2016</t>
-  </si>
-  <si>
-    <t>01-04-2016</t>
-  </si>
-  <si>
-    <t>01-07-2016</t>
-  </si>
-  <si>
-    <t>01-10-2016</t>
-  </si>
-  <si>
-    <t>01-01-2017</t>
-  </si>
-  <si>
-    <t>01-04-2017</t>
-  </si>
-  <si>
-    <t>01-07-2017</t>
-  </si>
-  <si>
-    <t>01-10-2017</t>
-  </si>
-  <si>
-    <t>01-01-2018</t>
-  </si>
-  <si>
-    <t>01-04-2018</t>
-  </si>
-  <si>
-    <t>01-07-2018</t>
-  </si>
-  <si>
-    <t>01-10-2018</t>
-  </si>
-  <si>
-    <t>01-01-2019</t>
-  </si>
-  <si>
-    <t>01-04-2019</t>
-  </si>
-  <si>
-    <t>01-07-2019</t>
-  </si>
-  <si>
-    <t>01-10-2019</t>
-  </si>
-  <si>
-    <t>01-01-2020</t>
-  </si>
-  <si>
-    <t>01-04-2020</t>
-  </si>
-  <si>
-    <t>01-07-2020</t>
-  </si>
-  <si>
-    <t>01-10-2020</t>
-  </si>
-  <si>
-    <t>01-01-2021</t>
-  </si>
-  <si>
-    <t>01-04-2021</t>
-  </si>
-  <si>
-    <t>01-07-2021</t>
+    <t>Ene-2010</t>
+  </si>
+  <si>
+    <t>Feb-2010</t>
+  </si>
+  <si>
+    <t>Mar-2010</t>
+  </si>
+  <si>
+    <t>Abr-2010</t>
+  </si>
+  <si>
+    <t>May-2010</t>
+  </si>
+  <si>
+    <t>Jun-2010</t>
+  </si>
+  <si>
+    <t>Jul-2010</t>
+  </si>
+  <si>
+    <t>Ago-2010</t>
+  </si>
+  <si>
+    <t>Sep-2010</t>
+  </si>
+  <si>
+    <t>Oct-2010</t>
+  </si>
+  <si>
+    <t>Nov-2010</t>
+  </si>
+  <si>
+    <t>Dic-2010</t>
+  </si>
+  <si>
+    <t>Ene-2011</t>
+  </si>
+  <si>
+    <t>Feb-2011</t>
+  </si>
+  <si>
+    <t>Mar-2011</t>
+  </si>
+  <si>
+    <t>Abr-2011</t>
+  </si>
+  <si>
+    <t>May-2011</t>
+  </si>
+  <si>
+    <t>Jun-2011</t>
+  </si>
+  <si>
+    <t>Jul-2011</t>
+  </si>
+  <si>
+    <t>Ago-2011</t>
+  </si>
+  <si>
+    <t>Sep-2011</t>
+  </si>
+  <si>
+    <t>Oct-2011</t>
+  </si>
+  <si>
+    <t>Nov-2011</t>
+  </si>
+  <si>
+    <t>Dic-2011</t>
+  </si>
+  <si>
+    <t>Ene-2012</t>
+  </si>
+  <si>
+    <t>Feb-2012</t>
+  </si>
+  <si>
+    <t>Mar-2012</t>
+  </si>
+  <si>
+    <t>Abr-2012</t>
+  </si>
+  <si>
+    <t>May-2012</t>
+  </si>
+  <si>
+    <t>Jun-2012</t>
+  </si>
+  <si>
+    <t>Jul-2012</t>
+  </si>
+  <si>
+    <t>Ago-2012</t>
+  </si>
+  <si>
+    <t>Sep-2012</t>
+  </si>
+  <si>
+    <t>Oct-2012</t>
+  </si>
+  <si>
+    <t>Nov-2012</t>
+  </si>
+  <si>
+    <t>Dic-2012</t>
+  </si>
+  <si>
+    <t>Ene-2013</t>
+  </si>
+  <si>
+    <t>Feb-2013</t>
+  </si>
+  <si>
+    <t>Mar-2013</t>
+  </si>
+  <si>
+    <t>Abr-2013</t>
+  </si>
+  <si>
+    <t>May-2013</t>
+  </si>
+  <si>
+    <t>Jun-2013</t>
+  </si>
+  <si>
+    <t>Jul-2013</t>
+  </si>
+  <si>
+    <t>Ago-2013</t>
+  </si>
+  <si>
+    <t>Sep-2013</t>
+  </si>
+  <si>
+    <t>Oct-2013</t>
+  </si>
+  <si>
+    <t>Nov-2013</t>
+  </si>
+  <si>
+    <t>Dic-2013</t>
+  </si>
+  <si>
+    <t>Ene-2014</t>
+  </si>
+  <si>
+    <t>Feb-2014</t>
+  </si>
+  <si>
+    <t>Mar-2014</t>
+  </si>
+  <si>
+    <t>Abr-2014</t>
+  </si>
+  <si>
+    <t>May-2014</t>
+  </si>
+  <si>
+    <t>Jun-2014</t>
+  </si>
+  <si>
+    <t>Jul-2014</t>
+  </si>
+  <si>
+    <t>Ago-2014</t>
+  </si>
+  <si>
+    <t>Sep-2014</t>
+  </si>
+  <si>
+    <t>Oct-2014</t>
+  </si>
+  <si>
+    <t>Nov-2014</t>
+  </si>
+  <si>
+    <t>Dic-2014</t>
+  </si>
+  <si>
+    <t>Ene-2015</t>
+  </si>
+  <si>
+    <t>Feb-2015</t>
+  </si>
+  <si>
+    <t>Mar-2015</t>
+  </si>
+  <si>
+    <t>Abr-2015</t>
+  </si>
+  <si>
+    <t>May-2015</t>
+  </si>
+  <si>
+    <t>Jun-2015</t>
+  </si>
+  <si>
+    <t>Jul-2015</t>
+  </si>
+  <si>
+    <t>Ago-2015</t>
+  </si>
+  <si>
+    <t>Sep-2015</t>
+  </si>
+  <si>
+    <t>Oct-2015</t>
+  </si>
+  <si>
+    <t>Nov-2015</t>
+  </si>
+  <si>
+    <t>Dic-2015</t>
+  </si>
+  <si>
+    <t>Ene-2016</t>
+  </si>
+  <si>
+    <t>Feb-2016</t>
+  </si>
+  <si>
+    <t>Mar-2016</t>
+  </si>
+  <si>
+    <t>Abr-2016</t>
+  </si>
+  <si>
+    <t>May-2016</t>
+  </si>
+  <si>
+    <t>Jun-2016</t>
+  </si>
+  <si>
+    <t>Jul-2016</t>
+  </si>
+  <si>
+    <t>Ago-2016</t>
+  </si>
+  <si>
+    <t>Sep-2016</t>
+  </si>
+  <si>
+    <t>Oct-2016</t>
+  </si>
+  <si>
+    <t>Nov-2016</t>
+  </si>
+  <si>
+    <t>Dic-2016</t>
+  </si>
+  <si>
+    <t>Ene-2017</t>
+  </si>
+  <si>
+    <t>Feb-2017</t>
+  </si>
+  <si>
+    <t>Mar-2017</t>
+  </si>
+  <si>
+    <t>Abr-2017</t>
+  </si>
+  <si>
+    <t>May-2017</t>
+  </si>
+  <si>
+    <t>Jun-2017</t>
+  </si>
+  <si>
+    <t>Jul-2017</t>
+  </si>
+  <si>
+    <t>Ago-2017</t>
+  </si>
+  <si>
+    <t>Sep-2017</t>
+  </si>
+  <si>
+    <t>Oct-2017</t>
+  </si>
+  <si>
+    <t>Nov-2017</t>
+  </si>
+  <si>
+    <t>Dic-2017</t>
+  </si>
+  <si>
+    <t>Ene-2018</t>
+  </si>
+  <si>
+    <t>Feb-2018</t>
+  </si>
+  <si>
+    <t>Mar-2018</t>
+  </si>
+  <si>
+    <t>Abr-2018</t>
+  </si>
+  <si>
+    <t>May-2018</t>
+  </si>
+  <si>
+    <t>Jun-2018</t>
+  </si>
+  <si>
+    <t>Jul-2018</t>
+  </si>
+  <si>
+    <t>Ago-2018</t>
+  </si>
+  <si>
+    <t>Sep-2018</t>
+  </si>
+  <si>
+    <t>Oct-2018</t>
+  </si>
+  <si>
+    <t>Nov-2018</t>
+  </si>
+  <si>
+    <t>Dic-2018</t>
+  </si>
+  <si>
+    <t>Ene-2019</t>
+  </si>
+  <si>
+    <t>Feb-2019</t>
+  </si>
+  <si>
+    <t>Mar-2019</t>
+  </si>
+  <si>
+    <t>Abr-2019</t>
+  </si>
+  <si>
+    <t>May-2019</t>
+  </si>
+  <si>
+    <t>Jun-2019</t>
+  </si>
+  <si>
+    <t>Jul-2019</t>
+  </si>
+  <si>
+    <t>Ago-2019</t>
+  </si>
+  <si>
+    <t>Sep-2019</t>
+  </si>
+  <si>
+    <t>Oct-2019</t>
+  </si>
+  <si>
+    <t>Nov-2019</t>
+  </si>
+  <si>
+    <t>Dic-2019</t>
+  </si>
+  <si>
+    <t>Ene-2020</t>
+  </si>
+  <si>
+    <t>Feb-2020</t>
+  </si>
+  <si>
+    <t>Mar-2020</t>
+  </si>
+  <si>
+    <t>Abr-2020</t>
+  </si>
+  <si>
+    <t>May-2020</t>
+  </si>
+  <si>
+    <t>Jun-2020</t>
+  </si>
+  <si>
+    <t>Jul-2020</t>
+  </si>
+  <si>
+    <t>Ago-2020</t>
+  </si>
+  <si>
+    <t>Sep-2020</t>
+  </si>
+  <si>
+    <t>Oct-2020</t>
+  </si>
+  <si>
+    <t>Nov-2020</t>
+  </si>
+  <si>
+    <t>Dic-2020</t>
+  </si>
+  <si>
+    <t>Ene-2021</t>
+  </si>
+  <si>
+    <t>Feb-2021</t>
+  </si>
+  <si>
+    <t>Mar-2021</t>
+  </si>
+  <si>
+    <t>Abr-2021</t>
+  </si>
+  <si>
+    <t>May-2021</t>
+  </si>
+  <si>
+    <t>Jun-2021</t>
+  </si>
+  <si>
+    <t>Jul-2021</t>
+  </si>
+  <si>
+    <t>Ago-2021</t>
+  </si>
+  <si>
+    <t>Sep-2021</t>
   </si>
 </sst>
 </file>
@@ -695,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,16 +837,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>71.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C2">
-        <v>75.8</v>
+        <v>92.8</v>
       </c>
       <c r="D2">
-        <v>97.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E2">
-        <v>102.2</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -740,16 +854,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>71.90000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C3">
-        <v>76.3</v>
+        <v>93.2</v>
       </c>
       <c r="D3">
-        <v>97.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E3">
-        <v>103</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -757,16 +871,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C4">
-        <v>76.5</v>
+        <v>94.2</v>
       </c>
       <c r="D4">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
       <c r="E4">
-        <v>102.8</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -774,16 +888,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>72.2</v>
+        <v>93.3</v>
       </c>
       <c r="C5">
-        <v>76.7</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E5">
-        <v>103.2</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -791,16 +905,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>72.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C6">
-        <v>77</v>
+        <v>94.5</v>
       </c>
       <c r="D6">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
       <c r="E6">
-        <v>102.6</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -808,16 +922,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>72.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C7">
-        <v>77.3</v>
+        <v>94.5</v>
       </c>
       <c r="D7">
-        <v>99.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E7">
-        <v>104.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -825,16 +939,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>73.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="C8">
-        <v>77.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>99.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E8">
-        <v>104.7</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -842,16 +956,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>73.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="C9">
-        <v>77.7</v>
+        <v>94.3</v>
       </c>
       <c r="D9">
-        <v>100.2</v>
+        <v>96.2</v>
       </c>
       <c r="E9">
-        <v>105.7</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -859,16 +973,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>73.5</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C10">
-        <v>78</v>
+        <v>94.7</v>
       </c>
       <c r="D10">
-        <v>99.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E10">
-        <v>104.8</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -876,16 +990,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>73.8</v>
+        <v>93.7</v>
       </c>
       <c r="C11">
-        <v>78.40000000000001</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>100.3</v>
+        <v>96.7</v>
       </c>
       <c r="E11">
-        <v>105.4</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -893,16 +1007,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>73.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C12">
-        <v>78.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D12">
-        <v>99.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E12">
-        <v>105.1</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -910,16 +1024,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>73.90000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C13">
-        <v>78.8</v>
+        <v>95.3</v>
       </c>
       <c r="D13">
-        <v>100.7</v>
+        <v>96.2</v>
       </c>
       <c r="E13">
-        <v>105.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -927,16 +1041,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>74.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>93.8</v>
       </c>
       <c r="D14">
-        <v>99.7</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E14">
-        <v>104.7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -944,16 +1058,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>74.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C15">
-        <v>79.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E15">
-        <v>105.4</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -961,16 +1075,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>74.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C16">
-        <v>79.5</v>
+        <v>95.5</v>
       </c>
       <c r="D16">
-        <v>99.7</v>
+        <v>96.3</v>
       </c>
       <c r="E16">
-        <v>105</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -978,16 +1092,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C17">
-        <v>79.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D17">
-        <v>99.7</v>
+        <v>96.5</v>
       </c>
       <c r="E17">
-        <v>105.3</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -995,16 +1109,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>75.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C18">
-        <v>79.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D18">
-        <v>99.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E18">
-        <v>104.6</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1012,16 +1126,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>75.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C19">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D19">
-        <v>99.3</v>
+        <v>96.3</v>
       </c>
       <c r="E19">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1029,16 +1143,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>76.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="C20">
-        <v>80.3</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D20">
-        <v>99.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="E20">
-        <v>104.7</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1046,16 +1160,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>76.8</v>
+        <v>95.5</v>
       </c>
       <c r="C21">
-        <v>80.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="D21">
-        <v>98.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E21">
-        <v>104.5</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1063,16 +1177,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>96.2</v>
       </c>
       <c r="C22">
-        <v>80.7</v>
+        <v>96.2</v>
       </c>
       <c r="D22">
-        <v>98.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E22">
-        <v>103.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1080,16 +1194,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>78.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C23">
-        <v>81.5</v>
+        <v>96.5</v>
       </c>
       <c r="D23">
-        <v>98.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="E23">
-        <v>103.9</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1097,16 +1211,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>78.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C24">
-        <v>81.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D24">
-        <v>98.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E24">
-        <v>103.8</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1114,16 +1228,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>78.5</v>
+        <v>97</v>
       </c>
       <c r="C25">
-        <v>82.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="D25">
-        <v>97.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="E25">
-        <v>103.6</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1131,16 +1245,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>79</v>
+        <v>96.2</v>
       </c>
       <c r="C26">
-        <v>82.7</v>
+        <v>95.2</v>
       </c>
       <c r="D26">
+        <v>96.2</v>
+      </c>
+      <c r="E26">
         <v>97.2</v>
-      </c>
-      <c r="E26">
-        <v>102.6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1148,16 +1262,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>79.8</v>
+        <v>96.7</v>
       </c>
       <c r="C27">
-        <v>83.5</v>
+        <v>95.5</v>
       </c>
       <c r="D27">
-        <v>97.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E27">
-        <v>103</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1165,16 +1279,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>79.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C28">
-        <v>83.7</v>
+        <v>97</v>
       </c>
       <c r="D28">
-        <v>97.5</v>
+        <v>96.8</v>
       </c>
       <c r="E28">
-        <v>102.8</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1182,16 +1296,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>80.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C29">
-        <v>84.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D29">
-        <v>97.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E29">
-        <v>102.8</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1199,16 +1313,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>80.8</v>
+        <v>98.2</v>
       </c>
       <c r="C30">
-        <v>84.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="D30">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E30">
-        <v>102</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1216,16 +1330,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>81.3</v>
+        <v>98.2</v>
       </c>
       <c r="C31">
-        <v>85</v>
+        <v>97.5</v>
       </c>
       <c r="D31">
-        <v>97.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E31">
-        <v>102.7</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1233,16 +1347,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>81.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="C32">
-        <v>85.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D32">
+        <v>95.8</v>
+      </c>
+      <c r="E32">
         <v>97.3</v>
-      </c>
-      <c r="E32">
-        <v>102.8</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1250,16 +1364,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>81.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="C33">
-        <v>85.59999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D33">
-        <v>97.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="E33">
-        <v>102.6</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1267,16 +1381,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>82.2</v>
+        <v>98.7</v>
       </c>
       <c r="C34">
-        <v>85.7</v>
+        <v>97.7</v>
       </c>
       <c r="D34">
-        <v>96.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E34">
-        <v>101.6</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1284,16 +1398,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>83.2</v>
+        <v>99</v>
       </c>
       <c r="C35">
-        <v>86.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D35">
-        <v>97.09999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E35">
-        <v>102</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1301,16 +1415,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>83.3</v>
+        <v>98.8</v>
       </c>
       <c r="C36">
-        <v>86.7</v>
+        <v>97.8</v>
       </c>
       <c r="D36">
-        <v>97.2</v>
+        <v>95.8</v>
       </c>
       <c r="E36">
-        <v>102</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1318,16 +1432,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>83.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C37">
-        <v>87.2</v>
+        <v>98.3</v>
       </c>
       <c r="D37">
-        <v>97.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="E37">
-        <v>101.9</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1335,16 +1449,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>83.7</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C38">
-        <v>86.8</v>
+        <v>96.5</v>
       </c>
       <c r="D38">
-        <v>96.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E38">
-        <v>101.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1352,16 +1466,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>84.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C39">
-        <v>87.7</v>
+        <v>96.8</v>
       </c>
       <c r="D39">
-        <v>97</v>
+        <v>95.7</v>
       </c>
       <c r="E39">
-        <v>101.7</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1369,16 +1483,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>85.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C40">
-        <v>87.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D40">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="E40">
         <v>96.90000000000001</v>
-      </c>
-      <c r="E40">
-        <v>101.5</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1386,16 +1500,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>85.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="C41">
-        <v>88.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D41">
-        <v>96.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="E41">
-        <v>101.5</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1403,16 +1517,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>85.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C42">
-        <v>87.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D42">
-        <v>96.8</v>
+        <v>96.3</v>
       </c>
       <c r="E42">
-        <v>100.7</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1420,16 +1534,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>86.8</v>
+        <v>99.7</v>
       </c>
       <c r="C43">
-        <v>88.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D43">
+        <v>96.3</v>
+      </c>
+      <c r="E43">
         <v>97.2</v>
-      </c>
-      <c r="E43">
-        <v>101.2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1437,16 +1551,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>86.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C44">
-        <v>88.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="D44">
-        <v>97.5</v>
+        <v>96.5</v>
       </c>
       <c r="E44">
-        <v>101.1</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1454,16 +1568,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>87.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C45">
-        <v>89.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="D45">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="E45">
-        <v>101.2</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1471,16 +1585,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>87.3</v>
+        <v>99.8</v>
       </c>
       <c r="C46">
-        <v>89.5</v>
+        <v>98.7</v>
       </c>
       <c r="D46">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E46">
-        <v>100.4</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1488,16 +1602,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>88.5</v>
+        <v>99.7</v>
       </c>
       <c r="C47">
-        <v>90.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D47">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E47">
-        <v>100.9</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1505,16 +1619,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>88.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C48">
-        <v>90.5</v>
+        <v>98.7</v>
       </c>
       <c r="D48">
         <v>97.3</v>
       </c>
       <c r="E48">
-        <v>100.8</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1522,16 +1636,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>89.7</v>
+        <v>100</v>
       </c>
       <c r="C49">
-        <v>91.3</v>
+        <v>99</v>
       </c>
       <c r="D49">
-        <v>97.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E49">
-        <v>101</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1539,16 +1653,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>90.2</v>
+        <v>98.8</v>
       </c>
       <c r="C50">
-        <v>91.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D50">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E50">
-        <v>100.4</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1556,16 +1670,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>91.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C51">
-        <v>92.2</v>
+        <v>97.7</v>
       </c>
       <c r="D51">
-        <v>98.5</v>
+        <v>97.2</v>
       </c>
       <c r="E51">
-        <v>100.9</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1573,16 +1687,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>91.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C52">
-        <v>92.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D52">
-        <v>99.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E52">
-        <v>100.9</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1590,16 +1704,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>91.7</v>
+        <v>100.2</v>
       </c>
       <c r="C53">
-        <v>93</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D53">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="E53">
-        <v>101.1</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1607,16 +1721,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>91.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C54">
-        <v>92.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="D54">
-        <v>97.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E54">
-        <v>100.2</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1624,16 +1738,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>91.8</v>
+        <v>100.2</v>
       </c>
       <c r="C55">
-        <v>93.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D55">
-        <v>97.5</v>
+        <v>99.8</v>
       </c>
       <c r="E55">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1641,16 +1755,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>91.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C56">
-        <v>93.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D56">
-        <v>97.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E56">
-        <v>100</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1658,16 +1772,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>92.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C57">
-        <v>94</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D57">
-        <v>96.7</v>
+        <v>100</v>
       </c>
       <c r="E57">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1675,16 +1789,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>92.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C58">
-        <v>93.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D58">
-        <v>96.7</v>
+        <v>100.3</v>
       </c>
       <c r="E58">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1692,16 +1806,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>93.3</v>
+        <v>100.1</v>
       </c>
       <c r="C59">
-        <v>94.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D59">
-        <v>96.8</v>
+        <v>100</v>
       </c>
       <c r="E59">
-        <v>99</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1709,16 +1823,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>93.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C60">
-        <v>94.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D60">
-        <v>96.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E60">
-        <v>98.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1726,16 +1840,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>94</v>
+        <v>99.8</v>
       </c>
       <c r="C61">
-        <v>95</v>
+        <v>99.7</v>
       </c>
       <c r="D61">
-        <v>96.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E61">
-        <v>98.7</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1743,16 +1857,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>94.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C62">
-        <v>94.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D62">
-        <v>96.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E62">
-        <v>98</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1760,16 +1874,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>95.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C63">
-        <v>96</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D63">
-        <v>96.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E63">
-        <v>98.09999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1777,16 +1891,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>95.7</v>
+        <v>100</v>
       </c>
       <c r="C64">
-        <v>95.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="D64">
-        <v>96.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E64">
-        <v>97.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1794,16 +1908,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>96.7</v>
+        <v>100.4</v>
       </c>
       <c r="C65">
-        <v>96.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="D65">
-        <v>96.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="E65">
-        <v>97.59999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1811,16 +1925,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>96.90000000000001</v>
+        <v>100.7</v>
       </c>
       <c r="C66">
-        <v>95.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="D66">
-        <v>96.5</v>
+        <v>100.4</v>
       </c>
       <c r="E66">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1828,16 +1942,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>98.2</v>
+        <v>100.7</v>
       </c>
       <c r="C67">
-        <v>97.5</v>
+        <v>100.6</v>
       </c>
       <c r="D67">
-        <v>96.5</v>
+        <v>100.2</v>
       </c>
       <c r="E67">
-        <v>97.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1845,16 +1959,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>98.09999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="C68">
-        <v>97.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D68">
-        <v>96</v>
+        <v>100.1</v>
       </c>
       <c r="E68">
-        <v>97.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1862,16 +1976,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>98.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="C69">
-        <v>98</v>
+        <v>100.2</v>
       </c>
       <c r="D69">
-        <v>95.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E69">
-        <v>97.09999999999999</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1879,16 +1993,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>98.7</v>
+        <v>100.3</v>
       </c>
       <c r="C70">
-        <v>97.2</v>
+        <v>100.7</v>
       </c>
       <c r="D70">
-        <v>95.8</v>
+        <v>100.3</v>
       </c>
       <c r="E70">
-        <v>96.59999999999999</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1896,16 +2010,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>99.59999999999999</v>
+        <v>100.5</v>
       </c>
       <c r="C71">
-        <v>98.5</v>
+        <v>100.9</v>
       </c>
       <c r="D71">
-        <v>96.3</v>
+        <v>100.2</v>
       </c>
       <c r="E71">
-        <v>97.3</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1913,16 +2027,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C72">
-        <v>98.09999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="D72">
-        <v>96.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E72">
-        <v>97.3</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1930,16 +2044,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C73">
-        <v>98.8</v>
+        <v>100.6</v>
       </c>
       <c r="D73">
-        <v>97.3</v>
+        <v>99.8</v>
       </c>
       <c r="E73">
-        <v>97.59999999999999</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1947,16 +2061,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>99.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C74">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="D74">
-        <v>97.3</v>
+        <v>99.5</v>
       </c>
       <c r="E74">
-        <v>97.3</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1964,16 +2078,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>100.2</v>
+        <v>98.7</v>
       </c>
       <c r="C75">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="D75">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E75">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1981,16 +2095,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C76">
-        <v>98.90000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="D76">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="E76">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1998,16 +2112,16 @@
         <v>80</v>
       </c>
       <c r="B77">
+        <v>100.2</v>
+      </c>
+      <c r="C77">
+        <v>101</v>
+      </c>
+      <c r="D77">
         <v>99.90000000000001</v>
       </c>
-      <c r="C77">
-        <v>99.5</v>
-      </c>
-      <c r="D77">
-        <v>99.8</v>
-      </c>
       <c r="E77">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2015,16 +2129,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>99</v>
+        <v>100.6</v>
       </c>
       <c r="C78">
-        <v>98.7</v>
+        <v>101.3</v>
       </c>
       <c r="D78">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="E78">
-        <v>99.40000000000001</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2032,16 +2146,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="C79">
+        <v>101.4</v>
+      </c>
+      <c r="D79">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E79">
         <v>100.5</v>
-      </c>
-      <c r="D79">
-        <v>100.3</v>
-      </c>
-      <c r="E79">
-        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2049,16 +2163,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="C80">
+        <v>100.8</v>
+      </c>
+      <c r="D80">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E80">
         <v>100.3</v>
-      </c>
-      <c r="D80">
-        <v>100.2</v>
-      </c>
-      <c r="E80">
-        <v>100.2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2066,13 +2180,13 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="C81">
-        <v>100.6</v>
+        <v>101</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E81">
         <v>100.4</v>
@@ -2083,16 +2197,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>99.09999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C82">
-        <v>99.59999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="D82">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E82">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2100,13 +2214,13 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="C83">
-        <v>101.2</v>
+        <v>101.6</v>
       </c>
       <c r="D83">
-        <v>99.90000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="E83">
         <v>100.6</v>
@@ -2117,16 +2231,16 @@
         <v>87</v>
       </c>
       <c r="B84">
+        <v>100.6</v>
+      </c>
+      <c r="C84">
+        <v>101</v>
+      </c>
+      <c r="D84">
         <v>100.4</v>
       </c>
-      <c r="C84">
-        <v>101.1</v>
-      </c>
-      <c r="D84">
-        <v>99.7</v>
-      </c>
       <c r="E84">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2134,16 +2248,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="C85">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D85">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="E85">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2151,13 +2265,13 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="C86">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="D86">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E86">
         <v>99.90000000000001</v>
@@ -2168,16 +2282,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>102</v>
+        <v>100.7</v>
       </c>
       <c r="C87">
-        <v>102.4</v>
+        <v>100.1</v>
       </c>
       <c r="D87">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="E87">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2185,16 +2299,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="C88">
-        <v>102.3</v>
+        <v>101.5</v>
       </c>
       <c r="D88">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E88">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2202,16 +2316,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="C89">
         <v>102.3</v>
       </c>
       <c r="D89">
-        <v>100.9</v>
+        <v>100.3</v>
       </c>
       <c r="E89">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2219,16 +2333,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="C90">
-        <v>101.5</v>
+        <v>102.3</v>
       </c>
       <c r="D90">
-        <v>101.2</v>
+        <v>100.4</v>
       </c>
       <c r="E90">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2236,16 +2350,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>103.8</v>
+        <v>102.1</v>
       </c>
       <c r="C91">
-        <v>103.4</v>
+        <v>102.6</v>
       </c>
       <c r="D91">
-        <v>100.9</v>
+        <v>100.2</v>
       </c>
       <c r="E91">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2253,16 +2367,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>104.1</v>
+        <v>101.6</v>
       </c>
       <c r="C92">
-        <v>103.4</v>
+        <v>102</v>
       </c>
       <c r="D92">
-        <v>101.4</v>
+        <v>100.1</v>
       </c>
       <c r="E92">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2270,16 +2384,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>104.3</v>
+        <v>101.9</v>
       </c>
       <c r="C93">
-        <v>103.3</v>
+        <v>102.3</v>
       </c>
       <c r="D93">
-        <v>101.8</v>
+        <v>100.3</v>
       </c>
       <c r="E93">
-        <v>100.7</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2287,16 +2401,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>103.5</v>
+        <v>102.3</v>
       </c>
       <c r="C94">
-        <v>102.4</v>
+        <v>102.7</v>
       </c>
       <c r="D94">
-        <v>101.5</v>
+        <v>100.5</v>
       </c>
       <c r="E94">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2304,16 +2418,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>105.3</v>
+        <v>102.3</v>
       </c>
       <c r="C95">
-        <v>104.5</v>
+        <v>102.5</v>
       </c>
       <c r="D95">
-        <v>101.7</v>
+        <v>100.6</v>
       </c>
       <c r="E95">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2321,16 +2435,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>105.1</v>
+        <v>102.1</v>
       </c>
       <c r="C96">
-        <v>104.4</v>
+        <v>102</v>
       </c>
       <c r="D96">
-        <v>101.8</v>
+        <v>100.9</v>
       </c>
       <c r="E96">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2338,16 +2452,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>105.3</v>
+        <v>102.5</v>
       </c>
       <c r="C97">
-        <v>104.6</v>
+        <v>102.4</v>
       </c>
       <c r="D97">
+        <v>101.2</v>
+      </c>
+      <c r="E97">
         <v>100.5</v>
-      </c>
-      <c r="E97">
-        <v>100.4</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2355,16 +2469,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>104.7</v>
+        <v>101.6</v>
       </c>
       <c r="C98">
-        <v>103.6</v>
+        <v>100.7</v>
       </c>
       <c r="D98">
-        <v>100.4</v>
+        <v>101.3</v>
       </c>
       <c r="E98">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2372,16 +2486,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>105.5</v>
+        <v>101.8</v>
       </c>
       <c r="C99">
-        <v>105.4</v>
+        <v>101.1</v>
       </c>
       <c r="D99">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="E99">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2389,16 +2503,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>105.1</v>
+        <v>102.9</v>
       </c>
       <c r="C100">
-        <v>105</v>
+        <v>102.6</v>
       </c>
       <c r="D100">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E100">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2406,16 +2520,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>105</v>
+        <v>103.3</v>
       </c>
       <c r="C101">
-        <v>104.8</v>
+        <v>103</v>
       </c>
       <c r="D101">
-        <v>99.5</v>
+        <v>100.9</v>
       </c>
       <c r="E101">
-        <v>99.90000000000001</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2423,16 +2537,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>105.8</v>
+        <v>104</v>
       </c>
       <c r="C102">
-        <v>104.8</v>
+        <v>103.5</v>
       </c>
       <c r="D102">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E102">
-        <v>100.2</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2440,16 +2554,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>107.4</v>
+        <v>104.1</v>
       </c>
       <c r="C103">
-        <v>106.3</v>
+        <v>103.6</v>
       </c>
       <c r="D103">
-        <v>99.3</v>
+        <v>100.9</v>
       </c>
       <c r="E103">
-        <v>98.90000000000001</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2457,10 +2571,656 @@
         <v>107</v>
       </c>
       <c r="B104">
+        <v>103.9</v>
+      </c>
+      <c r="C104">
+        <v>103.2</v>
+      </c>
+      <c r="D104">
+        <v>101</v>
+      </c>
+      <c r="E104">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
         <v>108</v>
       </c>
-      <c r="C104">
+      <c r="B105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>103.3</v>
+      </c>
+      <c r="D105">
+        <v>101.6</v>
+      </c>
+      <c r="E105">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106">
+        <v>104.4</v>
+      </c>
+      <c r="C106">
+        <v>103.7</v>
+      </c>
+      <c r="D106">
+        <v>101.7</v>
+      </c>
+      <c r="E106">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>104.7</v>
+      </c>
+      <c r="C107">
+        <v>103.7</v>
+      </c>
+      <c r="D107">
+        <v>102</v>
+      </c>
+      <c r="E107">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>104.1</v>
+      </c>
+      <c r="C108">
+        <v>102.9</v>
+      </c>
+      <c r="D108">
+        <v>101.8</v>
+      </c>
+      <c r="E108">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B109">
+        <v>104.1</v>
+      </c>
+      <c r="C109">
+        <v>103.4</v>
+      </c>
+      <c r="D109">
+        <v>101.5</v>
+      </c>
+      <c r="E109">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110">
+        <v>103</v>
+      </c>
+      <c r="C110">
+        <v>101.8</v>
+      </c>
+      <c r="D110">
+        <v>101.5</v>
+      </c>
+      <c r="E110">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111">
+        <v>103.3</v>
+      </c>
+      <c r="C111">
+        <v>102.1</v>
+      </c>
+      <c r="D111">
+        <v>101.5</v>
+      </c>
+      <c r="E111">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>104.4</v>
+      </c>
+      <c r="C112">
+        <v>103.4</v>
+      </c>
+      <c r="D112">
+        <v>101.5</v>
+      </c>
+      <c r="E112">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113">
+        <v>105.1</v>
+      </c>
+      <c r="C113">
+        <v>104.4</v>
+      </c>
+      <c r="D113">
+        <v>101.8</v>
+      </c>
+      <c r="E113">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114">
+        <v>105.2</v>
+      </c>
+      <c r="C114">
+        <v>104.3</v>
+      </c>
+      <c r="D114">
+        <v>101.8</v>
+      </c>
+      <c r="E114">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115">
+        <v>105.4</v>
+      </c>
+      <c r="C115">
+        <v>104.7</v>
+      </c>
+      <c r="D115">
+        <v>101.6</v>
+      </c>
+      <c r="E115">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116">
+        <v>104.9</v>
+      </c>
+      <c r="C116">
+        <v>104.1</v>
+      </c>
+      <c r="D116">
+        <v>101.6</v>
+      </c>
+      <c r="E116">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117">
+        <v>105.1</v>
+      </c>
+      <c r="C117">
+        <v>104.3</v>
+      </c>
+      <c r="D117">
+        <v>101.8</v>
+      </c>
+      <c r="E117">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118">
+        <v>105.3</v>
+      </c>
+      <c r="C118">
+        <v>104.7</v>
+      </c>
+      <c r="D118">
+        <v>101.9</v>
+      </c>
+      <c r="E118">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>105.4</v>
+      </c>
+      <c r="C119">
+        <v>104.8</v>
+      </c>
+      <c r="D119">
+        <v>100.4</v>
+      </c>
+      <c r="E119">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120">
+        <v>105.1</v>
+      </c>
+      <c r="C120">
+        <v>104.3</v>
+      </c>
+      <c r="D120">
+        <v>100.5</v>
+      </c>
+      <c r="E120">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121">
+        <v>105.4</v>
+      </c>
+      <c r="C121">
+        <v>104.7</v>
+      </c>
+      <c r="D121">
+        <v>100.5</v>
+      </c>
+      <c r="E121">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>104.4</v>
+      </c>
+      <c r="C122">
+        <v>102.9</v>
+      </c>
+      <c r="D122">
+        <v>100.5</v>
+      </c>
+      <c r="E122">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123">
+        <v>104.6</v>
+      </c>
+      <c r="C123">
+        <v>103.3</v>
+      </c>
+      <c r="D123">
+        <v>100.3</v>
+      </c>
+      <c r="E123">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>105.1</v>
+      </c>
+      <c r="C124">
+        <v>104.5</v>
+      </c>
+      <c r="D124">
+        <v>100.3</v>
+      </c>
+      <c r="E124">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125">
+        <v>105.4</v>
+      </c>
+      <c r="C125">
+        <v>105.3</v>
+      </c>
+      <c r="D125">
+        <v>100.2</v>
+      </c>
+      <c r="E125">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126">
+        <v>105.3</v>
+      </c>
+      <c r="C126">
+        <v>105.3</v>
+      </c>
+      <c r="D126">
+        <v>100.1</v>
+      </c>
+      <c r="E126">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127">
+        <v>105.7</v>
+      </c>
+      <c r="C127">
+        <v>105.6</v>
+      </c>
+      <c r="D127">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128">
+        <v>105.3</v>
+      </c>
+      <c r="C128">
+        <v>105.3</v>
+      </c>
+      <c r="D128">
+        <v>100</v>
+      </c>
+      <c r="E128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129">
+        <v>104.9</v>
+      </c>
+      <c r="C129">
+        <v>104.7</v>
+      </c>
+      <c r="D129">
+        <v>100.1</v>
+      </c>
+      <c r="E129">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130">
+        <v>105</v>
+      </c>
+      <c r="C130">
+        <v>104.9</v>
+      </c>
+      <c r="D130">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E130">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131">
+        <v>105.2</v>
+      </c>
+      <c r="C131">
+        <v>105.1</v>
+      </c>
+      <c r="D131">
+        <v>99.8</v>
+      </c>
+      <c r="E131">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132">
+        <v>104.8</v>
+      </c>
+      <c r="C132">
+        <v>104.5</v>
+      </c>
+      <c r="D132">
+        <v>99.5</v>
+      </c>
+      <c r="E132">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133">
+        <v>105.2</v>
+      </c>
+      <c r="C133">
+        <v>104.9</v>
+      </c>
+      <c r="D133">
+        <v>99.3</v>
+      </c>
+      <c r="E133">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134">
+        <v>105.3</v>
+      </c>
+      <c r="C134">
+        <v>104.4</v>
+      </c>
+      <c r="D134">
+        <v>99.8</v>
+      </c>
+      <c r="E134">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135">
+        <v>105.5</v>
+      </c>
+      <c r="C135">
+        <v>104.5</v>
+      </c>
+      <c r="D135">
+        <v>99.8</v>
+      </c>
+      <c r="E135">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136">
+        <v>106.5</v>
+      </c>
+      <c r="C136">
+        <v>105.5</v>
+      </c>
+      <c r="D136">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E136">
+        <v>100.3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137">
+        <v>107.1</v>
+      </c>
+      <c r="C137">
+        <v>106</v>
+      </c>
+      <c r="D137">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E137">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>107.4</v>
+      </c>
+      <c r="C138">
+        <v>106.3</v>
+      </c>
+      <c r="D138">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E138">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>107.7</v>
+      </c>
+      <c r="C139">
+        <v>106.5</v>
+      </c>
+      <c r="D139">
+        <v>99.5</v>
+      </c>
+      <c r="E139">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140">
+        <v>107.6</v>
+      </c>
+      <c r="C140">
+        <v>106.1</v>
+      </c>
+      <c r="D140">
+        <v>99.7</v>
+      </c>
+      <c r="E140">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141">
+        <v>108</v>
+      </c>
+      <c r="C141">
         <v>106.4</v>
+      </c>
+      <c r="D141">
+        <v>99.7</v>
+      </c>
+      <c r="E141">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142">
+        <v>108.5</v>
+      </c>
+      <c r="C142">
+        <v>106.9</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Serie</t>
   </si>
@@ -31,427 +31,313 @@
     <t>Japón índice de todos los ítemes menos alimentos y energía</t>
   </si>
   <si>
-    <t>Ene-2010</t>
-  </si>
-  <si>
-    <t>Feb-2010</t>
-  </si>
-  <si>
-    <t>Mar-2010</t>
-  </si>
-  <si>
-    <t>Abr-2010</t>
-  </si>
-  <si>
-    <t>May-2010</t>
-  </si>
-  <si>
-    <t>Jun-2010</t>
-  </si>
-  <si>
-    <t>Jul-2010</t>
-  </si>
-  <si>
-    <t>Ago-2010</t>
-  </si>
-  <si>
-    <t>Sep-2010</t>
-  </si>
-  <si>
-    <t>Oct-2010</t>
-  </si>
-  <si>
-    <t>Nov-2010</t>
-  </si>
-  <si>
-    <t>Dic-2010</t>
-  </si>
-  <si>
-    <t>Ene-2011</t>
-  </si>
-  <si>
-    <t>Feb-2011</t>
-  </si>
-  <si>
-    <t>Mar-2011</t>
-  </si>
-  <si>
-    <t>Abr-2011</t>
-  </si>
-  <si>
-    <t>May-2011</t>
-  </si>
-  <si>
-    <t>Jun-2011</t>
-  </si>
-  <si>
-    <t>Jul-2011</t>
-  </si>
-  <si>
-    <t>Ago-2011</t>
-  </si>
-  <si>
-    <t>Sep-2011</t>
-  </si>
-  <si>
-    <t>Oct-2011</t>
-  </si>
-  <si>
-    <t>Nov-2011</t>
-  </si>
-  <si>
-    <t>Dic-2011</t>
-  </si>
-  <si>
-    <t>Ene-2012</t>
-  </si>
-  <si>
-    <t>Feb-2012</t>
-  </si>
-  <si>
-    <t>Mar-2012</t>
-  </si>
-  <si>
-    <t>Abr-2012</t>
-  </si>
-  <si>
-    <t>May-2012</t>
-  </si>
-  <si>
-    <t>Jun-2012</t>
-  </si>
-  <si>
-    <t>Jul-2012</t>
-  </si>
-  <si>
-    <t>Ago-2012</t>
-  </si>
-  <si>
-    <t>Sep-2012</t>
-  </si>
-  <si>
-    <t>Oct-2012</t>
-  </si>
-  <si>
-    <t>Nov-2012</t>
-  </si>
-  <si>
-    <t>Dic-2012</t>
-  </si>
-  <si>
-    <t>Ene-2013</t>
-  </si>
-  <si>
-    <t>Feb-2013</t>
-  </si>
-  <si>
-    <t>Mar-2013</t>
-  </si>
-  <si>
-    <t>Abr-2013</t>
-  </si>
-  <si>
-    <t>May-2013</t>
-  </si>
-  <si>
-    <t>Jun-2013</t>
-  </si>
-  <si>
-    <t>Jul-2013</t>
-  </si>
-  <si>
-    <t>Ago-2013</t>
-  </si>
-  <si>
-    <t>Sep-2013</t>
-  </si>
-  <si>
-    <t>Oct-2013</t>
-  </si>
-  <si>
-    <t>Nov-2013</t>
-  </si>
-  <si>
-    <t>Dic-2013</t>
-  </si>
-  <si>
-    <t>Ene-2014</t>
-  </si>
-  <si>
-    <t>Feb-2014</t>
-  </si>
-  <si>
-    <t>Mar-2014</t>
-  </si>
-  <si>
-    <t>Abr-2014</t>
-  </si>
-  <si>
-    <t>May-2014</t>
-  </si>
-  <si>
-    <t>Jun-2014</t>
-  </si>
-  <si>
-    <t>Jul-2014</t>
-  </si>
-  <si>
-    <t>Ago-2014</t>
-  </si>
-  <si>
-    <t>Sep-2014</t>
-  </si>
-  <si>
-    <t>Oct-2014</t>
-  </si>
-  <si>
-    <t>Nov-2014</t>
-  </si>
-  <si>
-    <t>Dic-2014</t>
-  </si>
-  <si>
-    <t>Ene-2015</t>
-  </si>
-  <si>
-    <t>Feb-2015</t>
-  </si>
-  <si>
-    <t>Mar-2015</t>
-  </si>
-  <si>
-    <t>Abr-2015</t>
-  </si>
-  <si>
-    <t>May-2015</t>
-  </si>
-  <si>
-    <t>Jun-2015</t>
-  </si>
-  <si>
-    <t>Jul-2015</t>
-  </si>
-  <si>
-    <t>Ago-2015</t>
-  </si>
-  <si>
-    <t>Sep-2015</t>
-  </si>
-  <si>
-    <t>Oct-2015</t>
-  </si>
-  <si>
-    <t>Nov-2015</t>
-  </si>
-  <si>
-    <t>Dic-2015</t>
-  </si>
-  <si>
-    <t>Ene-2016</t>
-  </si>
-  <si>
-    <t>Feb-2016</t>
-  </si>
-  <si>
-    <t>Mar-2016</t>
-  </si>
-  <si>
-    <t>Abr-2016</t>
-  </si>
-  <si>
-    <t>May-2016</t>
-  </si>
-  <si>
-    <t>Jun-2016</t>
-  </si>
-  <si>
-    <t>Jul-2016</t>
-  </si>
-  <si>
-    <t>Ago-2016</t>
-  </si>
-  <si>
-    <t>Sep-2016</t>
-  </si>
-  <si>
-    <t>Oct-2016</t>
-  </si>
-  <si>
-    <t>Nov-2016</t>
-  </si>
-  <si>
-    <t>Dic-2016</t>
-  </si>
-  <si>
-    <t>Ene-2017</t>
-  </si>
-  <si>
-    <t>Feb-2017</t>
-  </si>
-  <si>
-    <t>Mar-2017</t>
-  </si>
-  <si>
-    <t>Abr-2017</t>
-  </si>
-  <si>
-    <t>May-2017</t>
-  </si>
-  <si>
-    <t>Jun-2017</t>
-  </si>
-  <si>
-    <t>Jul-2017</t>
-  </si>
-  <si>
-    <t>Ago-2017</t>
-  </si>
-  <si>
-    <t>Sep-2017</t>
-  </si>
-  <si>
-    <t>Oct-2017</t>
-  </si>
-  <si>
-    <t>Nov-2017</t>
-  </si>
-  <si>
-    <t>Dic-2017</t>
-  </si>
-  <si>
-    <t>Ene-2018</t>
-  </si>
-  <si>
-    <t>Feb-2018</t>
-  </si>
-  <si>
-    <t>Mar-2018</t>
-  </si>
-  <si>
-    <t>Abr-2018</t>
-  </si>
-  <si>
-    <t>May-2018</t>
-  </si>
-  <si>
-    <t>Jun-2018</t>
-  </si>
-  <si>
-    <t>Jul-2018</t>
-  </si>
-  <si>
-    <t>Ago-2018</t>
-  </si>
-  <si>
-    <t>Sep-2018</t>
-  </si>
-  <si>
-    <t>Oct-2018</t>
-  </si>
-  <si>
-    <t>Nov-2018</t>
-  </si>
-  <si>
-    <t>Dic-2018</t>
-  </si>
-  <si>
-    <t>Ene-2019</t>
-  </si>
-  <si>
-    <t>Feb-2019</t>
-  </si>
-  <si>
-    <t>Mar-2019</t>
-  </si>
-  <si>
-    <t>Abr-2019</t>
-  </si>
-  <si>
-    <t>May-2019</t>
-  </si>
-  <si>
-    <t>Jun-2019</t>
-  </si>
-  <si>
-    <t>Jul-2019</t>
-  </si>
-  <si>
-    <t>Ago-2019</t>
-  </si>
-  <si>
-    <t>Sep-2019</t>
-  </si>
-  <si>
-    <t>Oct-2019</t>
-  </si>
-  <si>
-    <t>Nov-2019</t>
-  </si>
-  <si>
-    <t>Dic-2019</t>
-  </si>
-  <si>
-    <t>Ene-2020</t>
-  </si>
-  <si>
-    <t>Feb-2020</t>
-  </si>
-  <si>
-    <t>Mar-2020</t>
-  </si>
-  <si>
-    <t>Abr-2020</t>
-  </si>
-  <si>
-    <t>May-2020</t>
-  </si>
-  <si>
-    <t>Jun-2020</t>
-  </si>
-  <si>
-    <t>Jul-2020</t>
-  </si>
-  <si>
-    <t>Ago-2020</t>
-  </si>
-  <si>
-    <t>Sep-2020</t>
-  </si>
-  <si>
-    <t>Oct-2020</t>
-  </si>
-  <si>
-    <t>Nov-2020</t>
-  </si>
-  <si>
-    <t>Dic-2020</t>
-  </si>
-  <si>
-    <t>Ene-2021</t>
-  </si>
-  <si>
-    <t>Feb-2021</t>
-  </si>
-  <si>
-    <t>Mar-2021</t>
-  </si>
-  <si>
-    <t>Abr-2021</t>
-  </si>
-  <si>
-    <t>May-2021</t>
-  </si>
-  <si>
-    <t>Jun-2021</t>
-  </si>
-  <si>
-    <t>Jul-2021</t>
-  </si>
-  <si>
-    <t>Ago-2021</t>
-  </si>
-  <si>
-    <t>Sep-2021</t>
+    <t>01-01-1996</t>
+  </si>
+  <si>
+    <t>01-04-1996</t>
+  </si>
+  <si>
+    <t>01-07-1996</t>
+  </si>
+  <si>
+    <t>01-10-1996</t>
+  </si>
+  <si>
+    <t>01-01-1997</t>
+  </si>
+  <si>
+    <t>01-04-1997</t>
+  </si>
+  <si>
+    <t>01-07-1997</t>
+  </si>
+  <si>
+    <t>01-10-1997</t>
+  </si>
+  <si>
+    <t>01-01-1998</t>
+  </si>
+  <si>
+    <t>01-04-1998</t>
+  </si>
+  <si>
+    <t>01-07-1998</t>
+  </si>
+  <si>
+    <t>01-10-1998</t>
+  </si>
+  <si>
+    <t>01-01-1999</t>
+  </si>
+  <si>
+    <t>01-04-1999</t>
+  </si>
+  <si>
+    <t>01-07-1999</t>
+  </si>
+  <si>
+    <t>01-10-1999</t>
+  </si>
+  <si>
+    <t>01-01-2000</t>
+  </si>
+  <si>
+    <t>01-04-2000</t>
+  </si>
+  <si>
+    <t>01-07-2000</t>
+  </si>
+  <si>
+    <t>01-10-2000</t>
+  </si>
+  <si>
+    <t>01-01-2001</t>
+  </si>
+  <si>
+    <t>01-04-2001</t>
+  </si>
+  <si>
+    <t>01-07-2001</t>
+  </si>
+  <si>
+    <t>01-10-2001</t>
+  </si>
+  <si>
+    <t>01-01-2002</t>
+  </si>
+  <si>
+    <t>01-04-2002</t>
+  </si>
+  <si>
+    <t>01-07-2002</t>
+  </si>
+  <si>
+    <t>01-10-2002</t>
+  </si>
+  <si>
+    <t>01-01-2003</t>
+  </si>
+  <si>
+    <t>01-04-2003</t>
+  </si>
+  <si>
+    <t>01-07-2003</t>
+  </si>
+  <si>
+    <t>01-10-2003</t>
+  </si>
+  <si>
+    <t>01-01-2004</t>
+  </si>
+  <si>
+    <t>01-04-2004</t>
+  </si>
+  <si>
+    <t>01-07-2004</t>
+  </si>
+  <si>
+    <t>01-10-2004</t>
+  </si>
+  <si>
+    <t>01-01-2005</t>
+  </si>
+  <si>
+    <t>01-04-2005</t>
+  </si>
+  <si>
+    <t>01-07-2005</t>
+  </si>
+  <si>
+    <t>01-10-2005</t>
+  </si>
+  <si>
+    <t>01-01-2006</t>
+  </si>
+  <si>
+    <t>01-04-2006</t>
+  </si>
+  <si>
+    <t>01-07-2006</t>
+  </si>
+  <si>
+    <t>01-10-2006</t>
+  </si>
+  <si>
+    <t>01-01-2007</t>
+  </si>
+  <si>
+    <t>01-04-2007</t>
+  </si>
+  <si>
+    <t>01-07-2007</t>
+  </si>
+  <si>
+    <t>01-10-2007</t>
+  </si>
+  <si>
+    <t>01-01-2008</t>
+  </si>
+  <si>
+    <t>01-04-2008</t>
+  </si>
+  <si>
+    <t>01-07-2008</t>
+  </si>
+  <si>
+    <t>01-10-2008</t>
+  </si>
+  <si>
+    <t>01-01-2009</t>
+  </si>
+  <si>
+    <t>01-04-2009</t>
+  </si>
+  <si>
+    <t>01-07-2009</t>
+  </si>
+  <si>
+    <t>01-10-2009</t>
+  </si>
+  <si>
+    <t>01-01-2010</t>
+  </si>
+  <si>
+    <t>01-04-2010</t>
+  </si>
+  <si>
+    <t>01-07-2010</t>
+  </si>
+  <si>
+    <t>01-10-2010</t>
+  </si>
+  <si>
+    <t>01-01-2011</t>
+  </si>
+  <si>
+    <t>01-04-2011</t>
+  </si>
+  <si>
+    <t>01-07-2011</t>
+  </si>
+  <si>
+    <t>01-10-2011</t>
+  </si>
+  <si>
+    <t>01-01-2012</t>
+  </si>
+  <si>
+    <t>01-04-2012</t>
+  </si>
+  <si>
+    <t>01-07-2012</t>
+  </si>
+  <si>
+    <t>01-10-2012</t>
+  </si>
+  <si>
+    <t>01-01-2013</t>
+  </si>
+  <si>
+    <t>01-04-2013</t>
+  </si>
+  <si>
+    <t>01-07-2013</t>
+  </si>
+  <si>
+    <t>01-10-2013</t>
+  </si>
+  <si>
+    <t>01-01-2014</t>
+  </si>
+  <si>
+    <t>01-04-2014</t>
+  </si>
+  <si>
+    <t>01-07-2014</t>
+  </si>
+  <si>
+    <t>01-10-2014</t>
+  </si>
+  <si>
+    <t>01-01-2015</t>
+  </si>
+  <si>
+    <t>01-04-2015</t>
+  </si>
+  <si>
+    <t>01-07-2015</t>
+  </si>
+  <si>
+    <t>01-10-2015</t>
+  </si>
+  <si>
+    <t>01-01-2016</t>
+  </si>
+  <si>
+    <t>01-04-2016</t>
+  </si>
+  <si>
+    <t>01-07-2016</t>
+  </si>
+  <si>
+    <t>01-10-2016</t>
+  </si>
+  <si>
+    <t>01-01-2017</t>
+  </si>
+  <si>
+    <t>01-04-2017</t>
+  </si>
+  <si>
+    <t>01-07-2017</t>
+  </si>
+  <si>
+    <t>01-10-2017</t>
+  </si>
+  <si>
+    <t>01-01-2018</t>
+  </si>
+  <si>
+    <t>01-04-2018</t>
+  </si>
+  <si>
+    <t>01-07-2018</t>
+  </si>
+  <si>
+    <t>01-10-2018</t>
+  </si>
+  <si>
+    <t>01-01-2019</t>
+  </si>
+  <si>
+    <t>01-04-2019</t>
+  </si>
+  <si>
+    <t>01-07-2019</t>
+  </si>
+  <si>
+    <t>01-10-2019</t>
+  </si>
+  <si>
+    <t>01-01-2020</t>
+  </si>
+  <si>
+    <t>01-04-2020</t>
+  </si>
+  <si>
+    <t>01-07-2020</t>
+  </si>
+  <si>
+    <t>01-10-2020</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -809,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,16 +723,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>91.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="C2">
-        <v>92.8</v>
+        <v>75.8</v>
       </c>
       <c r="D2">
-        <v>96.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="E2">
-        <v>99.3</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -854,16 +740,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>91.90000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C3">
-        <v>93.2</v>
+        <v>76.3</v>
       </c>
       <c r="D3">
-        <v>96.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E3">
-        <v>99.2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -871,16 +757,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>92.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>94.2</v>
+        <v>76.5</v>
       </c>
       <c r="D4">
-        <v>96.8</v>
+        <v>97.8</v>
       </c>
       <c r="E4">
-        <v>99.5</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -888,16 +774,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>93.3</v>
+        <v>72.2</v>
       </c>
       <c r="C5">
-        <v>94.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D5">
-        <v>96.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>99.2</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -905,16 +791,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>93.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C6">
-        <v>94.5</v>
+        <v>77</v>
       </c>
       <c r="D6">
-        <v>96.8</v>
+        <v>97.8</v>
       </c>
       <c r="E6">
-        <v>99.09999999999999</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -922,16 +808,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>93.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C7">
-        <v>94.5</v>
+        <v>77.3</v>
       </c>
       <c r="D7">
-        <v>96.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E7">
-        <v>98.8</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -939,16 +825,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D8">
-        <v>96.09999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E8">
-        <v>98.40000000000001</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -956,16 +842,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>93.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C9">
-        <v>94.3</v>
+        <v>77.7</v>
       </c>
       <c r="D9">
-        <v>96.2</v>
+        <v>100.2</v>
       </c>
       <c r="E9">
-        <v>98.40000000000001</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -973,16 +859,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>93.40000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="C10">
-        <v>94.7</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>96.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E10">
-        <v>98.40000000000001</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -990,16 +876,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>93.7</v>
+        <v>73.8</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D11">
-        <v>96.7</v>
+        <v>100.3</v>
       </c>
       <c r="E11">
-        <v>98.90000000000001</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1007,16 +893,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>93.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C12">
-        <v>94.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="D12">
-        <v>96.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E12">
-        <v>98.59999999999999</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1024,16 +910,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>94.40000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="C13">
-        <v>95.3</v>
+        <v>78.8</v>
       </c>
       <c r="D13">
-        <v>96.2</v>
+        <v>100.7</v>
       </c>
       <c r="E13">
-        <v>98.5</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1041,16 +927,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>93.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C14">
-        <v>93.8</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>96.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E14">
-        <v>98</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1058,16 +944,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>94.09999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C15">
-        <v>94.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="D15">
-        <v>96.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>97.90000000000001</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1075,16 +961,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>95.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="C16">
-        <v>95.5</v>
+        <v>79.5</v>
       </c>
       <c r="D16">
-        <v>96.3</v>
+        <v>99.7</v>
       </c>
       <c r="E16">
-        <v>98.09999999999999</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1092,16 +978,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>95.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>95.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D17">
-        <v>96.5</v>
+        <v>99.7</v>
       </c>
       <c r="E17">
-        <v>98.09999999999999</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1109,16 +995,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>95.90000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="C18">
-        <v>95.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="D18">
-        <v>96.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E18">
-        <v>98.3</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1126,16 +1012,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>95.90000000000001</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="C19">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D19">
-        <v>96.3</v>
+        <v>99.3</v>
       </c>
       <c r="E19">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1143,16 +1029,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>95.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C20">
-        <v>95.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="D20">
-        <v>96.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E20">
-        <v>97.90000000000001</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1160,16 +1046,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>95.5</v>
+        <v>76.8</v>
       </c>
       <c r="C21">
-        <v>95.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D21">
-        <v>96.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E21">
-        <v>97.90000000000001</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1177,16 +1063,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>96.2</v>
+        <v>77</v>
       </c>
       <c r="C22">
-        <v>96.2</v>
+        <v>80.7</v>
       </c>
       <c r="D22">
-        <v>96.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E22">
-        <v>98</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1194,16 +1080,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>96.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C23">
-        <v>96.5</v>
+        <v>81.5</v>
       </c>
       <c r="D23">
-        <v>96.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E23">
-        <v>97.90000000000001</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1211,16 +1097,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>96.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="C24">
-        <v>96.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="D24">
-        <v>95.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="E24">
-        <v>97.5</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1228,16 +1114,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>97</v>
+        <v>78.5</v>
       </c>
       <c r="C25">
-        <v>96.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="E25">
-        <v>97.5</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1245,16 +1131,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>96.2</v>
+        <v>79</v>
       </c>
       <c r="C26">
-        <v>95.2</v>
+        <v>82.7</v>
       </c>
       <c r="D26">
-        <v>96.2</v>
+        <v>97.2</v>
       </c>
       <c r="E26">
-        <v>97.2</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1262,16 +1148,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>96.7</v>
+        <v>79.8</v>
       </c>
       <c r="C27">
-        <v>95.5</v>
+        <v>83.5</v>
       </c>
       <c r="D27">
-        <v>96.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E27">
-        <v>97.40000000000001</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1279,16 +1165,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>97.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="C28">
-        <v>97</v>
+        <v>83.7</v>
       </c>
       <c r="D28">
-        <v>96.8</v>
+        <v>97.5</v>
       </c>
       <c r="E28">
-        <v>97.59999999999999</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1296,16 +1182,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>98.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="C29">
+        <v>84.2</v>
+      </c>
+      <c r="D29">
         <v>97.40000000000001</v>
       </c>
-      <c r="D29">
-        <v>96.90000000000001</v>
-      </c>
       <c r="E29">
-        <v>97.8</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1313,16 +1199,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>98.2</v>
+        <v>80.8</v>
       </c>
       <c r="C30">
-        <v>97.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="D30">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="E30">
-        <v>97.7</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1330,16 +1216,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>98.2</v>
+        <v>81.3</v>
       </c>
       <c r="C31">
-        <v>97.5</v>
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>96.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E31">
-        <v>97.5</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1347,16 +1233,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>97.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="C32">
-        <v>96.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D32">
-        <v>95.8</v>
+        <v>97.3</v>
       </c>
       <c r="E32">
-        <v>97.3</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1364,16 +1250,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C33">
-        <v>96.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D33">
-        <v>96</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E33">
-        <v>97.40000000000001</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1381,16 +1267,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>98.7</v>
+        <v>82.2</v>
       </c>
       <c r="C34">
-        <v>97.7</v>
+        <v>85.7</v>
       </c>
       <c r="D34">
-        <v>96.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E34">
-        <v>97.40000000000001</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1398,16 +1284,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>83.2</v>
       </c>
       <c r="C35">
-        <v>97.90000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D35">
-        <v>96.09999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E35">
-        <v>97.40000000000001</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1415,16 +1301,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>98.8</v>
+        <v>83.3</v>
       </c>
       <c r="C36">
-        <v>97.8</v>
+        <v>86.7</v>
       </c>
       <c r="D36">
-        <v>95.8</v>
+        <v>97.2</v>
       </c>
       <c r="E36">
-        <v>97.09999999999999</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1432,16 +1318,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>99.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="C37">
-        <v>98.3</v>
+        <v>87.2</v>
       </c>
       <c r="D37">
-        <v>95.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E37">
-        <v>96.90000000000001</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1449,16 +1335,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>98.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="C38">
-        <v>96.5</v>
+        <v>86.8</v>
       </c>
       <c r="D38">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E38">
-        <v>96.5</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1466,16 +1352,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>98.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="C39">
-        <v>96.8</v>
+        <v>87.7</v>
       </c>
       <c r="D39">
-        <v>95.7</v>
+        <v>97</v>
       </c>
       <c r="E39">
-        <v>96.5</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1483,16 +1369,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>99.59999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C40">
-        <v>98.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D40">
-        <v>95.90000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E40">
-        <v>96.90000000000001</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1500,16 +1386,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>99.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C41">
-        <v>98.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="D41">
-        <v>96.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E41">
-        <v>97.3</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1517,16 +1403,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>99.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="C42">
-        <v>98.59999999999999</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="D42">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="E42">
-        <v>97.3</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1534,16 +1420,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>99.7</v>
+        <v>86.8</v>
       </c>
       <c r="C43">
-        <v>98.59999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D43">
-        <v>96.3</v>
+        <v>97.2</v>
       </c>
       <c r="E43">
-        <v>97.2</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1551,16 +1437,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>99.2</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C44">
-        <v>97.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D44">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E44">
-        <v>97.2</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1568,16 +1454,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>99.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C45">
-        <v>98</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D45">
-        <v>96.8</v>
+        <v>97.2</v>
       </c>
       <c r="E45">
-        <v>97.40000000000001</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1585,16 +1471,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>99.8</v>
+        <v>87.3</v>
       </c>
       <c r="C46">
-        <v>98.7</v>
+        <v>89.5</v>
       </c>
       <c r="D46">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="E46">
-        <v>97.40000000000001</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1602,16 +1488,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>99.7</v>
+        <v>88.5</v>
       </c>
       <c r="C47">
-        <v>98.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D47">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E47">
-        <v>97.59999999999999</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1619,16 +1505,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>99.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="C48">
-        <v>98.7</v>
+        <v>90.5</v>
       </c>
       <c r="D48">
         <v>97.3</v>
       </c>
       <c r="E48">
-        <v>97.59999999999999</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1636,16 +1522,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>100</v>
+        <v>89.7</v>
       </c>
       <c r="C49">
-        <v>99</v>
+        <v>91.3</v>
       </c>
       <c r="D49">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="E49">
-        <v>97.59999999999999</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1653,16 +1539,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>98.8</v>
+        <v>90.2</v>
       </c>
       <c r="C50">
-        <v>97.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D50">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E50">
-        <v>97.09999999999999</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1670,16 +1556,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>99.09999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="C51">
-        <v>97.7</v>
+        <v>92.2</v>
       </c>
       <c r="D51">
-        <v>97.2</v>
+        <v>98.5</v>
       </c>
       <c r="E51">
-        <v>97.2</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1687,16 +1573,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>100.1</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C52">
-        <v>99.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="D52">
-        <v>97.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E52">
-        <v>97.5</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1704,16 +1590,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>100.2</v>
+        <v>91.7</v>
       </c>
       <c r="C53">
-        <v>99.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="D53">
-        <v>99.5</v>
+        <v>98.7</v>
       </c>
       <c r="E53">
-        <v>99.5</v>
+        <v>101.1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1721,16 +1607,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>100.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C54">
-        <v>99.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D54">
-        <v>99.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="E54">
-        <v>99.5</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1738,16 +1624,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>100.2</v>
+        <v>91.8</v>
       </c>
       <c r="C55">
-        <v>99.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D55">
-        <v>99.8</v>
+        <v>97.5</v>
       </c>
       <c r="E55">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1755,16 +1641,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>99.59999999999999</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C56">
-        <v>98.59999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="D56">
-        <v>99.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="E56">
-        <v>99.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1772,16 +1658,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>99.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C57">
-        <v>98.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="D57">
+        <v>96.7</v>
+      </c>
+      <c r="E57">
         <v>100</v>
-      </c>
-      <c r="E57">
-        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1789,16 +1675,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>100.1</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C58">
-        <v>99.40000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D58">
-        <v>100.3</v>
+        <v>96.7</v>
       </c>
       <c r="E58">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1806,16 +1692,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>100.1</v>
+        <v>93.3</v>
       </c>
       <c r="C59">
-        <v>99.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>96.8</v>
       </c>
       <c r="E59">
-        <v>99.8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1823,16 +1709,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>99.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="C60">
-        <v>99.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="D60">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E60">
-        <v>99.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1840,16 +1726,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>99.8</v>
+        <v>94</v>
       </c>
       <c r="C61">
-        <v>99.7</v>
+        <v>95</v>
       </c>
       <c r="D61">
-        <v>99.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E61">
-        <v>99.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1857,16 +1743,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>98.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C62">
-        <v>97.90000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="D62">
-        <v>99.59999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="E62">
-        <v>99.3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1874,16 +1760,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>98.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C63">
-        <v>98.40000000000001</v>
+        <v>96</v>
       </c>
       <c r="D63">
-        <v>99.40000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E63">
-        <v>99.3</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1891,16 +1777,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>95.7</v>
       </c>
       <c r="C64">
-        <v>99.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D64">
-        <v>99.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="E64">
-        <v>99.59999999999999</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1908,16 +1794,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>100.4</v>
+        <v>96.7</v>
       </c>
       <c r="C65">
-        <v>100.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D65">
-        <v>100.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1925,16 +1811,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>100.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C66">
-        <v>100.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D66">
-        <v>100.4</v>
+        <v>96.5</v>
       </c>
       <c r="E66">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1942,16 +1828,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>100.7</v>
+        <v>98.2</v>
       </c>
       <c r="C67">
-        <v>100.6</v>
+        <v>97.5</v>
       </c>
       <c r="D67">
-        <v>100.2</v>
+        <v>96.5</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1959,16 +1845,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>100.1</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C68">
-        <v>99.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D68">
-        <v>100.1</v>
+        <v>96</v>
       </c>
       <c r="E68">
-        <v>100</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1976,16 +1862,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>100.1</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C69">
-        <v>100.2</v>
+        <v>98</v>
       </c>
       <c r="D69">
-        <v>100.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="E69">
-        <v>100.2</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1993,16 +1879,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>100.3</v>
+        <v>98.7</v>
       </c>
       <c r="C70">
-        <v>100.7</v>
+        <v>97.2</v>
       </c>
       <c r="D70">
-        <v>100.3</v>
+        <v>95.8</v>
       </c>
       <c r="E70">
-        <v>100.3</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2010,16 +1896,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>100.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C71">
-        <v>100.9</v>
+        <v>98.5</v>
       </c>
       <c r="D71">
-        <v>100.2</v>
+        <v>96.3</v>
       </c>
       <c r="E71">
-        <v>100.4</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2027,16 +1913,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C72">
-        <v>100.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D72">
-        <v>99.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="E72">
-        <v>100.4</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2044,16 +1930,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C73">
-        <v>100.6</v>
+        <v>98.8</v>
       </c>
       <c r="D73">
-        <v>99.8</v>
+        <v>97.3</v>
       </c>
       <c r="E73">
-        <v>100.4</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2061,16 +1947,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>98.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C74">
-        <v>98.8</v>
+        <v>98</v>
       </c>
       <c r="D74">
-        <v>99.5</v>
+        <v>97.3</v>
       </c>
       <c r="E74">
-        <v>99.8</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2078,16 +1964,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>98.7</v>
+        <v>100.2</v>
       </c>
       <c r="C75">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="D75">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E75">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2095,16 +1981,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C76">
-        <v>100.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D76">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="E76">
-        <v>100.2</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2112,16 +1998,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C77">
-        <v>101</v>
+        <v>99.5</v>
       </c>
       <c r="D77">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E77">
-        <v>100.6</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2129,16 +2015,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>100.6</v>
+        <v>99</v>
       </c>
       <c r="C78">
-        <v>101.3</v>
+        <v>98.7</v>
       </c>
       <c r="D78">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E78">
-        <v>100.6</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2146,16 +2032,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="C79">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
       <c r="D79">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="E79">
-        <v>100.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2163,16 +2049,16 @@
         <v>83</v>
       </c>
       <c r="B80">
+        <v>100.2</v>
+      </c>
+      <c r="C80">
         <v>100.3</v>
       </c>
-      <c r="C80">
-        <v>100.8</v>
-      </c>
       <c r="D80">
-        <v>99.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="E80">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2180,13 +2066,13 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="C81">
-        <v>101</v>
+        <v>100.6</v>
       </c>
       <c r="D81">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="E81">
         <v>100.4</v>
@@ -2197,16 +2083,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>100.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C82">
-        <v>101.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D82">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E82">
-        <v>100.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2214,13 +2100,13 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>101</v>
+        <v>100.5</v>
       </c>
       <c r="C83">
-        <v>101.6</v>
+        <v>101.2</v>
       </c>
       <c r="D83">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E83">
         <v>100.6</v>
@@ -2231,16 +2117,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="C84">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="D84">
+        <v>99.7</v>
+      </c>
+      <c r="E84">
         <v>100.4</v>
-      </c>
-      <c r="E84">
-        <v>100.5</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2248,16 +2134,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="C85">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="D85">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="E85">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2265,13 +2151,13 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="C86">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="D86">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E86">
         <v>99.90000000000001</v>
@@ -2282,16 +2168,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>100.7</v>
+        <v>102</v>
       </c>
       <c r="C87">
-        <v>100.1</v>
+        <v>102.4</v>
       </c>
       <c r="D87">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="E87">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2299,16 +2185,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
       <c r="C88">
-        <v>101.5</v>
+        <v>102.3</v>
       </c>
       <c r="D88">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="E88">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2316,16 +2202,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="C89">
         <v>102.3</v>
       </c>
       <c r="D89">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="E89">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2333,16 +2219,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="C90">
-        <v>102.3</v>
+        <v>101.5</v>
       </c>
       <c r="D90">
-        <v>100.4</v>
+        <v>101.2</v>
       </c>
       <c r="E90">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2350,16 +2236,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>102.1</v>
+        <v>103.8</v>
       </c>
       <c r="C91">
-        <v>102.6</v>
+        <v>103.4</v>
       </c>
       <c r="D91">
-        <v>100.2</v>
+        <v>100.9</v>
       </c>
       <c r="E91">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2367,16 +2253,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>101.6</v>
+        <v>104.1</v>
       </c>
       <c r="C92">
-        <v>102</v>
+        <v>103.4</v>
       </c>
       <c r="D92">
-        <v>100.1</v>
+        <v>101.4</v>
       </c>
       <c r="E92">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2384,16 +2270,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>101.9</v>
+        <v>104.3</v>
       </c>
       <c r="C93">
-        <v>102.3</v>
+        <v>103.3</v>
       </c>
       <c r="D93">
-        <v>100.3</v>
+        <v>101.8</v>
       </c>
       <c r="E93">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2401,16 +2287,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>102.3</v>
+        <v>103.5</v>
       </c>
       <c r="C94">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="D94">
+        <v>101.5</v>
+      </c>
+      <c r="E94">
         <v>100.5</v>
-      </c>
-      <c r="E94">
-        <v>100.3</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2418,16 +2304,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>102.3</v>
+        <v>105.3</v>
       </c>
       <c r="C95">
-        <v>102.5</v>
+        <v>104.5</v>
       </c>
       <c r="D95">
-        <v>100.6</v>
+        <v>101.7</v>
       </c>
       <c r="E95">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2435,16 +2321,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>102.1</v>
+        <v>105.1</v>
       </c>
       <c r="C96">
-        <v>102</v>
+        <v>104.4</v>
       </c>
       <c r="D96">
-        <v>100.9</v>
+        <v>101.8</v>
       </c>
       <c r="E96">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2452,16 +2338,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>102.5</v>
+        <v>105.3</v>
       </c>
       <c r="C97">
-        <v>102.4</v>
+        <v>104.6</v>
       </c>
       <c r="D97">
-        <v>101.2</v>
+        <v>100.5</v>
       </c>
       <c r="E97">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2469,16 +2355,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>101.6</v>
+        <v>104.7</v>
       </c>
       <c r="C98">
-        <v>100.7</v>
+        <v>103.6</v>
       </c>
       <c r="D98">
-        <v>101.3</v>
+        <v>100.4</v>
       </c>
       <c r="E98">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2486,16 +2372,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>101.8</v>
+        <v>105.5</v>
       </c>
       <c r="C99">
-        <v>101.1</v>
+        <v>105.4</v>
       </c>
       <c r="D99">
-        <v>101.3</v>
+        <v>100.1</v>
       </c>
       <c r="E99">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2503,16 +2389,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>102.9</v>
+        <v>105.1</v>
       </c>
       <c r="C100">
-        <v>102.6</v>
+        <v>105</v>
       </c>
       <c r="D100">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E100">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2520,16 +2406,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>103.3</v>
+        <v>105</v>
       </c>
       <c r="C101">
-        <v>103</v>
+        <v>104.8</v>
       </c>
       <c r="D101">
-        <v>100.9</v>
+        <v>99.5</v>
       </c>
       <c r="E101">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2537,16 +2423,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>104</v>
+        <v>105.8</v>
       </c>
       <c r="C102">
-        <v>103.5</v>
+        <v>104.8</v>
       </c>
       <c r="D102">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E102">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2554,16 +2440,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>104.1</v>
+        <v>107.4</v>
       </c>
       <c r="C103">
-        <v>103.6</v>
+        <v>106.3</v>
       </c>
       <c r="D103">
-        <v>100.9</v>
+        <v>99.3</v>
       </c>
       <c r="E103">
-        <v>100.3</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2571,656 +2457,10 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>103.9</v>
+        <v>108</v>
       </c>
       <c r="C104">
-        <v>103.2</v>
-      </c>
-      <c r="D104">
-        <v>101</v>
-      </c>
-      <c r="E104">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105">
-        <v>104</v>
-      </c>
-      <c r="C105">
-        <v>103.3</v>
-      </c>
-      <c r="D105">
-        <v>101.6</v>
-      </c>
-      <c r="E105">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106">
-        <v>104.4</v>
-      </c>
-      <c r="C106">
-        <v>103.7</v>
-      </c>
-      <c r="D106">
-        <v>101.7</v>
-      </c>
-      <c r="E106">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107">
-        <v>104.7</v>
-      </c>
-      <c r="C107">
-        <v>103.7</v>
-      </c>
-      <c r="D107">
-        <v>102</v>
-      </c>
-      <c r="E107">
-        <v>100.7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108">
-        <v>104.1</v>
-      </c>
-      <c r="C108">
-        <v>102.9</v>
-      </c>
-      <c r="D108">
-        <v>101.8</v>
-      </c>
-      <c r="E108">
-        <v>100.7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109">
-        <v>104.1</v>
-      </c>
-      <c r="C109">
-        <v>103.4</v>
-      </c>
-      <c r="D109">
-        <v>101.5</v>
-      </c>
-      <c r="E109">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110">
-        <v>103</v>
-      </c>
-      <c r="C110">
-        <v>101.8</v>
-      </c>
-      <c r="D110">
-        <v>101.5</v>
-      </c>
-      <c r="E110">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111">
-        <v>103.3</v>
-      </c>
-      <c r="C111">
-        <v>102.1</v>
-      </c>
-      <c r="D111">
-        <v>101.5</v>
-      </c>
-      <c r="E111">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112">
-        <v>104.4</v>
-      </c>
-      <c r="C112">
-        <v>103.4</v>
-      </c>
-      <c r="D112">
-        <v>101.5</v>
-      </c>
-      <c r="E112">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113">
-        <v>105.1</v>
-      </c>
-      <c r="C113">
-        <v>104.4</v>
-      </c>
-      <c r="D113">
-        <v>101.8</v>
-      </c>
-      <c r="E113">
-        <v>100.9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114">
-        <v>105.2</v>
-      </c>
-      <c r="C114">
-        <v>104.3</v>
-      </c>
-      <c r="D114">
-        <v>101.8</v>
-      </c>
-      <c r="E114">
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115">
-        <v>105.4</v>
-      </c>
-      <c r="C115">
-        <v>104.7</v>
-      </c>
-      <c r="D115">
-        <v>101.6</v>
-      </c>
-      <c r="E115">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116">
-        <v>104.9</v>
-      </c>
-      <c r="C116">
-        <v>104.1</v>
-      </c>
-      <c r="D116">
-        <v>101.6</v>
-      </c>
-      <c r="E116">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117">
-        <v>105.1</v>
-      </c>
-      <c r="C117">
-        <v>104.3</v>
-      </c>
-      <c r="D117">
-        <v>101.8</v>
-      </c>
-      <c r="E117">
-        <v>100.9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118">
-        <v>105.3</v>
-      </c>
-      <c r="C118">
-        <v>104.7</v>
-      </c>
-      <c r="D118">
-        <v>101.9</v>
-      </c>
-      <c r="E118">
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119">
-        <v>105.4</v>
-      </c>
-      <c r="C119">
-        <v>104.8</v>
-      </c>
-      <c r="D119">
-        <v>100.4</v>
-      </c>
-      <c r="E119">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120">
-        <v>105.1</v>
-      </c>
-      <c r="C120">
-        <v>104.3</v>
-      </c>
-      <c r="D120">
-        <v>100.5</v>
-      </c>
-      <c r="E120">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121">
-        <v>105.4</v>
-      </c>
-      <c r="C121">
-        <v>104.7</v>
-      </c>
-      <c r="D121">
-        <v>100.5</v>
-      </c>
-      <c r="E121">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122">
-        <v>104.4</v>
-      </c>
-      <c r="C122">
-        <v>102.9</v>
-      </c>
-      <c r="D122">
-        <v>100.5</v>
-      </c>
-      <c r="E122">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123">
-        <v>104.6</v>
-      </c>
-      <c r="C123">
-        <v>103.3</v>
-      </c>
-      <c r="D123">
-        <v>100.3</v>
-      </c>
-      <c r="E123">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124">
-        <v>105.1</v>
-      </c>
-      <c r="C124">
-        <v>104.5</v>
-      </c>
-      <c r="D124">
-        <v>100.3</v>
-      </c>
-      <c r="E124">
-        <v>100.3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125">
-        <v>105.4</v>
-      </c>
-      <c r="C125">
-        <v>105.3</v>
-      </c>
-      <c r="D125">
-        <v>100.2</v>
-      </c>
-      <c r="E125">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126">
-        <v>105.3</v>
-      </c>
-      <c r="C126">
-        <v>105.3</v>
-      </c>
-      <c r="D126">
-        <v>100.1</v>
-      </c>
-      <c r="E126">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127">
-        <v>105.7</v>
-      </c>
-      <c r="C127">
-        <v>105.6</v>
-      </c>
-      <c r="D127">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E127">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128">
-        <v>105.3</v>
-      </c>
-      <c r="C128">
-        <v>105.3</v>
-      </c>
-      <c r="D128">
-        <v>100</v>
-      </c>
-      <c r="E128">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129">
-        <v>104.9</v>
-      </c>
-      <c r="C129">
-        <v>104.7</v>
-      </c>
-      <c r="D129">
-        <v>100.1</v>
-      </c>
-      <c r="E129">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130">
-        <v>105</v>
-      </c>
-      <c r="C130">
-        <v>104.9</v>
-      </c>
-      <c r="D130">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E130">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131">
-        <v>105.2</v>
-      </c>
-      <c r="C131">
-        <v>105.1</v>
-      </c>
-      <c r="D131">
-        <v>99.8</v>
-      </c>
-      <c r="E131">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132">
-        <v>104.8</v>
-      </c>
-      <c r="C132">
-        <v>104.5</v>
-      </c>
-      <c r="D132">
-        <v>99.5</v>
-      </c>
-      <c r="E132">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133">
-        <v>105.2</v>
-      </c>
-      <c r="C133">
-        <v>104.9</v>
-      </c>
-      <c r="D133">
-        <v>99.3</v>
-      </c>
-      <c r="E133">
-        <v>99.90000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134">
-        <v>105.3</v>
-      </c>
-      <c r="C134">
-        <v>104.4</v>
-      </c>
-      <c r="D134">
-        <v>99.8</v>
-      </c>
-      <c r="E134">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135">
-        <v>105.5</v>
-      </c>
-      <c r="C135">
-        <v>104.5</v>
-      </c>
-      <c r="D135">
-        <v>99.8</v>
-      </c>
-      <c r="E135">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136">
-        <v>106.5</v>
-      </c>
-      <c r="C136">
-        <v>105.5</v>
-      </c>
-      <c r="D136">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E136">
-        <v>100.3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137">
-        <v>107.1</v>
-      </c>
-      <c r="C137">
-        <v>106</v>
-      </c>
-      <c r="D137">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E137">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138">
-        <v>107.4</v>
-      </c>
-      <c r="C138">
-        <v>106.3</v>
-      </c>
-      <c r="D138">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E138">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139">
-        <v>107.7</v>
-      </c>
-      <c r="C139">
-        <v>106.5</v>
-      </c>
-      <c r="D139">
-        <v>99.5</v>
-      </c>
-      <c r="E139">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140">
-        <v>107.6</v>
-      </c>
-      <c r="C140">
-        <v>106.1</v>
-      </c>
-      <c r="D140">
-        <v>99.7</v>
-      </c>
-      <c r="E140">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141">
-        <v>108</v>
-      </c>
-      <c r="C141">
         <v>106.4</v>
-      </c>
-      <c r="D141">
-        <v>99.7</v>
-      </c>
-      <c r="E141">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142">
-        <v>108.5</v>
-      </c>
-      <c r="C142">
-        <v>106.9</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
+++ b/12/5/Índices de precios en la zona Euro y Japón 1913 a 2021 - Trimestral.xlsx
@@ -2462,6 +2462,12 @@
       <c r="C104">
         <v>106.4</v>
       </c>
+      <c r="D104">
+        <v>99.8</v>
+      </c>
+      <c r="E104">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
